--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value794.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value794.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.546879759382468</v>
+        <v>1.776953935623169</v>
       </c>
       <c r="B1">
-        <v>3.143269925759567</v>
+        <v>3.834307670593262</v>
       </c>
       <c r="C1">
-        <v>2.649694973788106</v>
+        <v>1.297136545181274</v>
       </c>
       <c r="D1">
-        <v>2.055126831965471</v>
+        <v>0.8588575720787048</v>
       </c>
       <c r="E1">
-        <v>1.264661550195239</v>
+        <v>0.4611234068870544</v>
       </c>
     </row>
   </sheetData>
